--- a/biology/Botanique/Salix_magnifica/Salix_magnifica.xlsx
+++ b/biology/Botanique/Salix_magnifica/Salix_magnifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix magnifica est une espèce de saule appartenant à la famille des  Salicaceae, endémique au Sichuan au sud-ouest de la Chine.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix magnifica est un arbre qui pousse à haute altitude, de 2 100 à 3 000 m. C'est une espèce menacée par la raréfaction de son habitat[2],[3].
-Le Saule magnifique est un arbuste (ou un petit arbre), atteignant 6 m de haut, avec des feuilles alternes caduques, de 10 à 25 cm de long et 7 à 12 cm de large, entièrement marginées. Elles sont vertes en partie supérieure et glauques au-dessous, avec des nervures et un pétiole rouges. Les chatons apparaissent après les feuilles, en fin de printemps. Comme tous les saules, c'est une espèce dioïque. Chatons mâles et femelles mesurent 10 cm de long à l'époque de la pollinisation, parvenant à 25 cm de long au moment de la maturité des graines[2],[4].
-Trois variétés botaniques sont répertoriées[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix magnifica est un arbre qui pousse à haute altitude, de 2 100 à 3 000 m. C'est une espèce menacée par la raréfaction de son habitat,.
+Le Saule magnifique est un arbuste (ou un petit arbre), atteignant 6 m de haut, avec des feuilles alternes caduques, de 10 à 25 cm de long et 7 à 12 cm de large, entièrement marginées. Elles sont vertes en partie supérieure et glauques au-dessous, avec des nervures et un pétiole rouges. Les chatons apparaissent après les feuilles, en fin de printemps. Comme tous les saules, c'est une espèce dioïque. Chatons mâles et femelles mesurent 10 cm de long à l'époque de la pollinisation, parvenant à 25 cm de long au moment de la maturité des graines,.
+Trois variétés botaniques sont répertoriées :
 S. m. var. magnifica
 S. m. var. apatela (C.K.Schneider) K.S.Hao
 S. m. var. ulotricha (C.K.Schneider) N.Chao
-Salix magnifica est cultivé en Europe de l'Ouest, comme variété ornementale pour ses feuilles qui sont les plus grandes de tous les saules[4].
+Salix magnifica est cultivé en Europe de l'Ouest, comme variété ornementale pour ses feuilles qui sont les plus grandes de tous les saules.
 </t>
         </is>
       </c>
